--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1A7136-1DDF-4636-A934-100B52E791EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7D2ED-0AF1-4292-A25E-A4CE1314CD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -115,9 +115,6 @@
     <t>18.03.2024  au 27.05.2024</t>
   </si>
   <si>
-    <t>P_App - 335 - Passion Lecture</t>
-  </si>
-  <si>
     <t>heure</t>
   </si>
   <si>
@@ -137,6 +134,12 @@
   </si>
   <si>
     <t>Recherche sur internet sur comment avoir un localhost en HTTPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test d'ajout de routes </t>
+  </si>
+  <si>
+    <t>P_App - 183</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1060,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1986,9 +1989,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2024,7 +2027,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="55"/>
       <c r="E2" s="55"/>
@@ -2032,7 +2035,7 @@
         <v>2</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
@@ -2041,7 +2044,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 15 minutes</v>
+        <v>0 jours 3 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2060,11 +2063,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>135</v>
+        <v>180</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2083,19 +2086,19 @@
         <v>12</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -2114,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="15"/>
     </row>
@@ -2134,7 +2137,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G8" s="16"/>
       <c r="M8" t="s">
@@ -2163,7 +2166,7 @@
         <v>6</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G9" s="18"/>
       <c r="M9" t="s">
@@ -2177,15 +2180,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="47"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45378</v>
+      </c>
       <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="49">
+        <v>45</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -8625,7 +8636,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8633,7 +8644,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8742,7 +8753,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8765,17 +8776,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -8998,6 +8998,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9007,17 +9018,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9034,4 +9034,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDC7D2ED-0AF1-4292-A25E-A4CE1314CD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828F196-A628-44C2-BAAF-12546FC9F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -140,6 +140,18 @@
   </si>
   <si>
     <t>P_App - 183</t>
+  </si>
+  <si>
+    <t>Changement des fichiers .js en fichier mjs. Et adaptation du code par rapport au .mjs</t>
+  </si>
+  <si>
+    <t>Recherche sur internet pour trouver comment rendre ses pages http en https</t>
+  </si>
+  <si>
+    <t>Test local pour faire fonctionner http/http</t>
+  </si>
+  <si>
+    <t>Mise en page du rapport et journal de travail</t>
   </si>
 </sst>
 </file>
@@ -1060,13 +1072,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>7.6388888888888895E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2083333333333336E-2</c:v>
+                  <c:v>7.9861111111111105E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1989,9 +2001,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2056,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 3 heurs 0 minutes</v>
+        <v>0 jours 4 heurs 45 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2063,11 +2075,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>180</v>
+        <v>285</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2209,15 +2221,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B11" s="51">
+        <v>45399</v>
+      </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="D11" s="53">
+        <v>45</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2230,15 +2250,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45399</v>
+      </c>
       <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="49">
+        <v>20</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2251,15 +2279,23 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="str">
+      <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="51"/>
+        <v>16</v>
+      </c>
+      <c r="B13" s="51">
+        <v>45399</v>
+      </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="D13" s="53">
+        <v>25</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2272,15 +2308,23 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="47"/>
+        <v>16</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45399</v>
+      </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
+      <c r="D14" s="49">
+        <v>15</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -8636,7 +8680,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8644,7 +8688,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>3.125E-2</v>
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8672,7 +8716,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8680,7 +8724,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>5.2083333333333336E-2</v>
+        <v>7.9861111111111105E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8753,7 +8797,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.125</v>
+        <v>0.19791666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8776,6 +8820,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -8998,17 +9053,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9018,6 +9062,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9034,15 +9089,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8828F196-A628-44C2-BAAF-12546FC9F816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685DACA-5213-4280-A787-471C3C6102B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -152,6 +152,15 @@
   </si>
   <si>
     <t>Mise en page du rapport et journal de travail</t>
+  </si>
+  <si>
+    <t>Résolutions de problèmes avec les keys et Open SSL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherches sur internet sur les web tokens </t>
+  </si>
+  <si>
+    <t>Problèmes avec https et les tokens</t>
   </si>
 </sst>
 </file>
@@ -1069,16 +1078,16 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.6388888888888895E-2</c:v>
+                  <c:v>0.16319444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.9861111111111105E-2</c:v>
+                  <c:v>8.6805555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2002,8 +2011,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2065,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 4 heurs 45 minutes</v>
+        <v>0 jours 7 heurs 45 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2075,11 +2084,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>165</v>
+        <v>345</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>285</v>
+        <v>465</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2337,15 +2346,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B15" s="51">
+        <v>45406</v>
+      </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="37"/>
+      <c r="D15" s="53">
+        <v>45</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2358,44 +2375,66 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B16" s="47">
+        <v>45406</v>
+      </c>
       <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="37"/>
+      <c r="D16" s="49">
+        <v>20</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="51">
+        <v>45406</v>
+      </c>
       <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="37"/>
+      <c r="D17" s="53">
+        <v>25</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="O17">
         <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45406</v>
+      </c>
       <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
+      <c r="D18" s="49">
+        <v>30</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F18" s="37"/>
       <c r="G18" s="16"/>
       <c r="O18">
@@ -2403,14 +2442,20 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="str">
+      <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="51">
+        <v>45406</v>
+      </c>
       <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
+      <c r="D19" s="53">
+        <v>15</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>4</v>
+      </c>
       <c r="F19" s="37"/>
       <c r="G19" s="18"/>
       <c r="O19">
@@ -2418,38 +2463,58 @@
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45406</v>
+      </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="49">
+        <v>10</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>0</v>
+      </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="51"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="51">
+        <v>45406</v>
+      </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
+      <c r="D21" s="53">
+        <v>20</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>4</v>
+      </c>
       <c r="F21" s="37"/>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="47"/>
+        <v>17</v>
+      </c>
+      <c r="B22" s="47">
+        <v>45406</v>
+      </c>
       <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
+      <c r="D22" s="49">
+        <v>15</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>4</v>
+      </c>
       <c r="F22" s="37"/>
       <c r="G22" s="16"/>
     </row>
@@ -8662,7 +8727,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8670,7 +8735,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>0</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8680,7 +8745,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>110</v>
+        <v>235</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8688,7 +8753,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>7.6388888888888895E-2</v>
+        <v>0.16319444444444445</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8716,7 +8781,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8724,7 +8789,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>7.9861111111111105E-2</v>
+        <v>8.6805555555555552E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8797,7 +8862,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.19791666666666666</v>
+        <v>0.32291666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8820,17 +8885,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9053,6 +9107,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9062,17 +9127,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9089,4 +9143,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5685DACA-5213-4280-A787-471C3C6102B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8696A5-40E4-43FB-9467-700E1028C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -161,6 +161,18 @@
   </si>
   <si>
     <t>Problèmes avec https et les tokens</t>
+  </si>
+  <si>
+    <t>Création d'une page login.html et login.mjs</t>
+  </si>
+  <si>
+    <t>Création d'utilisateurs fictifs avec des mots de passe en clair pour le debug</t>
+  </si>
+  <si>
+    <t>Création de la partie login avec toutes les erreurs possibles comme mot de passe incorrect etc.</t>
+  </si>
+  <si>
+    <t>Redirection dynamique du login avec le nom de l'utilisateur.</t>
   </si>
 </sst>
 </file>
@@ -2012,7 +2024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2435,7 +2447,9 @@
       <c r="E18" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="37"/>
+      <c r="F18" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="O18">
         <v>50</v>
@@ -2456,7 +2470,9 @@
       <c r="E19" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="37"/>
+      <c r="F19" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="O19">
         <v>55</v>
@@ -2497,7 +2513,9 @@
       <c r="E21" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="37"/>
+      <c r="F21" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -2515,7 +2533,9 @@
       <c r="E22" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="37"/>
+      <c r="F22" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -8885,6 +8905,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9107,17 +9138,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9127,6 +9147,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9143,15 +9174,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8696A5-40E4-43FB-9467-700E1028C58B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C315DCA-B2FE-4B2D-BB0E-DEAA65D4DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -2024,7 +2024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2539,11 +2539,13 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="51"/>
+        <v>18</v>
+      </c>
+      <c r="B23" s="51">
+        <v>45413</v>
+      </c>
       <c r="C23" s="52"/>
       <c r="D23" s="53"/>
       <c r="E23" s="54"/>
@@ -8905,17 +8907,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9138,6 +9129,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9147,17 +9149,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9174,4 +9165,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C315DCA-B2FE-4B2D-BB0E-DEAA65D4DE42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA3891-DDEA-40D8-9142-A35472D2FAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -173,6 +173,21 @@
   </si>
   <si>
     <t>Redirection dynamique du login avec le nom de l'utilisateur.</t>
+  </si>
+  <si>
+    <t>Création d'un admin qui peut voir tout les utilisateurs</t>
+  </si>
+  <si>
+    <t>Recherche sur internet sur comment donner un token à un utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Règlage de problèmes avec les routes </t>
+  </si>
+  <si>
+    <t>Essais d'ajout d'utilisateurs à une DB</t>
+  </si>
+  <si>
+    <t>Résolutions de problèmes avec le HTTPS</t>
   </si>
 </sst>
 </file>
@@ -1090,16 +1105,16 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.16319444444444445</c:v>
+                  <c:v>0.23958333333333334</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.6805555555555552E-2</c:v>
+                  <c:v>9.375E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2024,7 +2039,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2092,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 7 heurs 45 minutes</v>
+        <v>0 jours 10 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2096,11 +2111,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>345</v>
+        <v>480</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>465</v>
+        <v>600</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2547,69 +2562,115 @@
         <v>45413</v>
       </c>
       <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="37"/>
+      <c r="D23" s="53">
+        <v>45</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="47">
+        <v>45413</v>
+      </c>
       <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="37"/>
+      <c r="D24" s="49">
+        <v>20</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="str">
+      <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="51"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="51">
+        <v>45413</v>
+      </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="53">
+        <v>15</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="47">
+        <v>45413</v>
+      </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="37"/>
+      <c r="D26" s="49">
+        <v>10</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>0</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="17">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="51"/>
+        <v>18</v>
+      </c>
+      <c r="B27" s="51">
+        <v>45413</v>
+      </c>
       <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="37"/>
+      <c r="D27" s="53">
+        <v>20</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="47"/>
+        <v>18</v>
+      </c>
+      <c r="B28" s="47">
+        <v>45413</v>
+      </c>
       <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="36"/>
+      <c r="D28" s="49">
+        <v>25</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8749,7 +8810,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8757,7 +8818,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>3.125E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8767,7 +8828,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8775,7 +8836,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.16319444444444445</v>
+        <v>0.23958333333333334</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8803,7 +8864,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8811,7 +8872,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>8.6805555555555552E-2</v>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8884,7 +8945,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.32291666666666669</v>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AA3891-DDEA-40D8-9142-A35472D2FAB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E02802-3146-4628-ADB0-38D9F07C65F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -188,6 +188,60 @@
   </si>
   <si>
     <t>Résolutions de problèmes avec le HTTPS</t>
+  </si>
+  <si>
+    <t>Tutoriel comment lier un utilisateur à un token</t>
+  </si>
+  <si>
+    <t>Rapport de Projet</t>
+  </si>
+  <si>
+    <t>Rapport de projet</t>
+  </si>
+  <si>
+    <t>Création du Powerpoint</t>
+  </si>
+  <si>
+    <t>Essais d'ajout de token à un utilisateur</t>
+  </si>
+  <si>
+    <t>Problèmes avec les routes et les user</t>
+  </si>
+  <si>
+    <t>Problèmes avec Bcrypt</t>
+  </si>
+  <si>
+    <t>Création des pages utilisateur</t>
+  </si>
+  <si>
+    <t>Changements avec Github</t>
+  </si>
+  <si>
+    <t>Problèmes avec les URLS</t>
+  </si>
+  <si>
+    <t>Contrôle des routes avec Insomnia</t>
+  </si>
+  <si>
+    <t>Problèmes avec les Tokens</t>
+  </si>
+  <si>
+    <t>Finalisation du Projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout d'un utilisateur Admin </t>
+  </si>
+  <si>
+    <t>Problèmes avec les droits de l'utilisateur Admin</t>
+  </si>
+  <si>
+    <t>Recherches avec ChatGPT pour régler les problèmes avec l'user Admin</t>
+  </si>
+  <si>
+    <t>Finalisation du Rapport de Projet</t>
+  </si>
+  <si>
+    <t>Commit GitHub</t>
   </si>
 </sst>
 </file>
@@ -1105,16 +1159,16 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>8.6805555555555552E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23958333333333334</c:v>
+                  <c:v>0.50694444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.375E-2</c:v>
+                  <c:v>0.15625</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2038,8 +2092,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2092,7 +2146,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 0 minutes</v>
+        <v>0 jours 19 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2111,11 +2165,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>480</v>
+        <v>1020</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>600</v>
+        <v>1140</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2674,255 +2728,423 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="17">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B29" s="51">
+        <v>45420</v>
+      </c>
       <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="53">
+        <v>45</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B30" s="47">
+        <v>45420</v>
+      </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="37"/>
+      <c r="D30" s="49">
+        <v>20</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="str">
+      <c r="A31" s="17">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B31" s="51">
+        <v>45420</v>
+      </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="53">
+        <v>25</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="47">
+        <v>45420</v>
+      </c>
       <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="37"/>
+      <c r="D32" s="49">
+        <v>30</v>
+      </c>
+      <c r="E32" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="str">
+      <c r="A33" s="17">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B33" s="51">
+        <v>45420</v>
+      </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="53">
+        <v>15</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="8">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="B34" s="47">
+        <v>45420</v>
+      </c>
       <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="49">
+        <v>40</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="str">
+      <c r="A35" s="17">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="51"/>
+        <v>19</v>
+      </c>
+      <c r="B35" s="51">
+        <v>45420</v>
+      </c>
       <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="37"/>
+      <c r="D35" s="53">
+        <v>5</v>
+      </c>
+      <c r="E35" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="8">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B36" s="47">
+        <v>45427</v>
+      </c>
       <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="49">
+        <v>30</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="str">
+      <c r="A37" s="17">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="51"/>
+        <v>20</v>
+      </c>
+      <c r="B37" s="51">
+        <v>45427</v>
+      </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="53">
+        <v>15</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="str">
+      <c r="A38" s="8">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B38" s="47">
+        <v>45427</v>
+      </c>
       <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="36"/>
+      <c r="D38" s="49">
+        <v>45</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="str">
+      <c r="A39" s="17">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="51"/>
+        <v>20</v>
+      </c>
+      <c r="B39" s="51">
+        <v>45427</v>
+      </c>
       <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="36"/>
+      <c r="D39" s="53">
+        <v>45</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="str">
+      <c r="A40" s="8">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="47"/>
+        <v>20</v>
+      </c>
+      <c r="B40" s="47">
+        <v>45427</v>
+      </c>
       <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="36"/>
+      <c r="D40" s="49">
+        <v>20</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="str">
+      <c r="A41" s="17">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
-        <v/>
-      </c>
-      <c r="B41" s="51"/>
+        <v>20</v>
+      </c>
+      <c r="B41" s="51">
+        <v>45427</v>
+      </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="53">
+        <v>25</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="str">
+      <c r="A42" s="8">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
-        <v/>
-      </c>
-      <c r="B42" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B42" s="47">
+        <v>45434</v>
+      </c>
       <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="36"/>
+      <c r="D42" s="49">
+        <v>20</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="str">
+      <c r="A43" s="17">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
-        <v/>
-      </c>
-      <c r="B43" s="51"/>
+        <v>21</v>
+      </c>
+      <c r="B43" s="51">
+        <v>45434</v>
+      </c>
       <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="36"/>
+      <c r="D43" s="53">
+        <v>25</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="8">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
-        <v/>
-      </c>
-      <c r="B44" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B44" s="47">
+        <v>45434</v>
+      </c>
       <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="36"/>
+      <c r="D44" s="49">
+        <v>30</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="str">
+      <c r="A45" s="17">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
-        <v/>
-      </c>
-      <c r="B45" s="51"/>
+        <v>21</v>
+      </c>
+      <c r="B45" s="51">
+        <v>45434</v>
+      </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="36"/>
+      <c r="D45" s="53">
+        <v>15</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="str">
+      <c r="A46" s="8">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
-        <v/>
-      </c>
-      <c r="B46" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B46" s="47">
+        <v>45434</v>
+      </c>
       <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="36"/>
+      <c r="D46" s="49">
+        <v>15</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="str">
+      <c r="A47" s="17">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
-        <v/>
-      </c>
-      <c r="B47" s="51"/>
+        <v>21</v>
+      </c>
+      <c r="B47" s="51">
+        <v>45434</v>
+      </c>
       <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="36"/>
+      <c r="D47" s="53">
+        <v>15</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="8">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
-        <v/>
-      </c>
-      <c r="B48" s="47"/>
+        <v>21</v>
+      </c>
+      <c r="B48" s="47">
+        <v>45434</v>
+      </c>
       <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="49">
+        <v>15</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="17" t="str">
+      <c r="A49" s="17">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
-        <v/>
-      </c>
-      <c r="B49" s="51"/>
+        <v>21</v>
+      </c>
+      <c r="B49" s="51">
+        <v>45434</v>
+      </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="53">
+        <v>45</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>52</v>
+      </c>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8810,7 +9032,7 @@
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -8818,7 +9040,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>4.1666666666666664E-2</v>
+        <v>8.6805555555555552E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8828,7 +9050,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>345</v>
+        <v>730</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8836,7 +9058,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.23958333333333334</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8864,7 +9086,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8872,7 +9094,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>9.375E-2</v>
+        <v>0.15625</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8945,7 +9167,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.41666666666666669</v>
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8968,6 +9190,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9190,17 +9423,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9210,6 +9432,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9226,15 +9459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
+++ b/Documentation/Journal-de-Travail_Thibaud_Racine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_183-SecuredApp\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E02802-3146-4628-ADB0-38D9F07C65F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C69881F-860D-4317-9748-F5CF00A4E21B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="69">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -242,6 +242,12 @@
   </si>
   <si>
     <t>Commit GitHub</t>
+  </si>
+  <si>
+    <t>Présentation de mon projet à la classe</t>
+  </si>
+  <si>
+    <t>Présentation des projets des autres élèves</t>
   </si>
 </sst>
 </file>
@@ -1174,7 +1180,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>0.13541666666666666</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -2093,7 +2099,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2146,7 +2152,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 19 heurs 0 minutes</v>
+        <v>0 jours 21 heurs 15 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2161,15 +2167,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>1020</v>
+        <v>1095</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1140</v>
+        <v>1275</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3148,27 +3154,45 @@
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="str">
+      <c r="A50" s="8">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
-        <v/>
-      </c>
-      <c r="B50" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="B50" s="47">
+        <v>45441</v>
+      </c>
       <c r="C50" s="48"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="36"/>
+      <c r="D50" s="49">
+        <v>45</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>67</v>
+      </c>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="17" t="str">
+      <c r="A51" s="17">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
-        <v/>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="36"/>
+        <v>22</v>
+      </c>
+      <c r="B51" s="51">
+        <v>45441</v>
+      </c>
+      <c r="C51" s="52">
+        <v>1</v>
+      </c>
+      <c r="D51" s="53">
+        <v>30</v>
+      </c>
+      <c r="E51" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -9118,11 +9142,11 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C9" s="32" t="str">
         <f>'Journal de travail'!M13</f>
@@ -9130,7 +9154,7 @@
       </c>
       <c r="D9" s="34">
         <f t="shared" si="0"/>
-        <v>4.1666666666666664E-2</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -9167,7 +9191,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.79166666666666663</v>
+        <v>0.88541666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9190,17 +9214,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9423,6 +9436,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9432,17 +9456,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9459,4 +9472,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>